--- a/data_year/zb/公共管理、社会保障及其他/人民检察院办理民事、行政抗诉案件情况/人民检察院办理民事、行政抗诉案件.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民检察院办理民事、行政抗诉案件情况/人民检察院办理民事、行政抗诉案件.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,499 +493,417 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="D2" t="n">
-        <v>248</v>
+        <v>1023</v>
       </c>
       <c r="E2" t="n">
-        <v>8175</v>
+        <v>9719</v>
       </c>
       <c r="F2" t="n">
-        <v>11817</v>
+        <v>12139</v>
       </c>
       <c r="G2" t="n">
-        <v>14021</v>
+        <v>15367</v>
       </c>
       <c r="H2" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I2" t="n">
-        <v>3313</v>
+        <v>3791</v>
       </c>
       <c r="J2" t="n">
-        <v>37284</v>
+        <v>81451</v>
       </c>
       <c r="K2" t="n">
-        <v>2199</v>
+        <v>1863</v>
       </c>
       <c r="L2" t="n">
-        <v>1985</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="D3" t="n">
-        <v>343</v>
+        <v>960</v>
       </c>
       <c r="E3" t="n">
-        <v>7565</v>
+        <v>8239</v>
       </c>
       <c r="F3" t="n">
-        <v>11459</v>
+        <v>10332</v>
       </c>
       <c r="G3" t="n">
-        <v>13614</v>
+        <v>13489</v>
       </c>
       <c r="H3" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I3" t="n">
-        <v>3326</v>
+        <v>3124</v>
       </c>
       <c r="J3" t="n">
-        <v>36061</v>
+        <v>66363</v>
       </c>
       <c r="K3" t="n">
-        <v>1881</v>
+        <v>1509</v>
       </c>
       <c r="L3" t="n">
-        <v>1655</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>471</v>
+        <v>303</v>
       </c>
       <c r="D4" t="n">
-        <v>703</v>
+        <v>876</v>
       </c>
       <c r="E4" t="n">
-        <v>7787</v>
+        <v>7272</v>
       </c>
       <c r="F4" t="n">
-        <v>11556</v>
+        <v>10506</v>
       </c>
       <c r="G4" t="n">
-        <v>14039</v>
-      </c>
-      <c r="H4" t="n">
-        <v>57</v>
-      </c>
+        <v>14592</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>3026</v>
+        <v>2691</v>
       </c>
       <c r="J4" t="n">
-        <v>41558</v>
+        <v>65366</v>
       </c>
       <c r="K4" t="n">
-        <v>1710</v>
+        <v>1075</v>
       </c>
       <c r="L4" t="n">
-        <v>1877</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>454</v>
+        <v>488</v>
       </c>
       <c r="D5" t="n">
-        <v>1023</v>
+        <v>686</v>
       </c>
       <c r="E5" t="n">
-        <v>9719</v>
+        <v>5962</v>
       </c>
       <c r="F5" t="n">
-        <v>12139</v>
+        <v>6018</v>
       </c>
       <c r="G5" t="n">
-        <v>15367</v>
-      </c>
-      <c r="H5" t="n">
-        <v>27</v>
-      </c>
+        <v>6016</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>3791</v>
+        <v>2225</v>
       </c>
       <c r="J5" t="n">
-        <v>81451</v>
+        <v>164029</v>
       </c>
       <c r="K5" t="n">
-        <v>1863</v>
+        <v>1183</v>
       </c>
       <c r="L5" t="n">
-        <v>2588</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>341</v>
+        <v>265</v>
       </c>
       <c r="D6" t="n">
-        <v>960</v>
+        <v>518</v>
       </c>
       <c r="E6" t="n">
-        <v>8239</v>
+        <v>3770</v>
       </c>
       <c r="F6" t="n">
-        <v>10332</v>
+        <v>4299</v>
       </c>
       <c r="G6" t="n">
-        <v>13489</v>
-      </c>
-      <c r="H6" t="n">
-        <v>35</v>
-      </c>
+        <v>6326</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>3124</v>
-      </c>
-      <c r="J6" t="n">
-        <v>66363</v>
-      </c>
+        <v>1613</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>1509</v>
+        <v>860</v>
       </c>
       <c r="L6" t="n">
-        <v>2305</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>303</v>
+        <v>175</v>
       </c>
       <c r="D7" t="n">
-        <v>876</v>
+        <v>379</v>
       </c>
       <c r="E7" t="n">
-        <v>7272</v>
+        <v>2504</v>
       </c>
       <c r="F7" t="n">
-        <v>10506</v>
+        <v>3548</v>
       </c>
       <c r="G7" t="n">
-        <v>14592</v>
+        <v>5309</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>2691</v>
-      </c>
-      <c r="J7" t="n">
-        <v>65366</v>
-      </c>
+        <v>1088</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>1075</v>
+        <v>615</v>
       </c>
       <c r="L7" t="n">
-        <v>2327</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>488</v>
+        <v>125</v>
       </c>
       <c r="D8" t="n">
-        <v>686</v>
+        <v>309</v>
       </c>
       <c r="E8" t="n">
-        <v>5962</v>
+        <v>1714</v>
       </c>
       <c r="F8" t="n">
-        <v>6018</v>
+        <v>3282</v>
       </c>
       <c r="G8" t="n">
-        <v>6016</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
+        <v>5239</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2851</v>
+      </c>
       <c r="I8" t="n">
-        <v>2225</v>
-      </c>
-      <c r="J8" t="n">
-        <v>164029</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>1183</v>
+        <v>369</v>
       </c>
       <c r="L8" t="n">
-        <v>1380</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>265</v>
+        <v>106</v>
       </c>
       <c r="D9" t="n">
-        <v>518</v>
+        <v>233</v>
       </c>
       <c r="E9" t="n">
-        <v>3770</v>
+        <v>1706</v>
       </c>
       <c r="F9" t="n">
-        <v>4299</v>
+        <v>3283</v>
       </c>
       <c r="G9" t="n">
-        <v>6326</v>
+        <v>6177</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>1613</v>
+        <v>879</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>860</v>
+        <v>377</v>
       </c>
       <c r="L9" t="n">
-        <v>514</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="D10" t="n">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="E10" t="n">
-        <v>2504</v>
+        <v>2058</v>
       </c>
       <c r="F10" t="n">
-        <v>3548</v>
+        <v>4050</v>
       </c>
       <c r="G10" t="n">
-        <v>5309</v>
+        <v>7340</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>1088</v>
+        <v>975</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>615</v>
+        <v>450</v>
       </c>
       <c r="L10" t="n">
-        <v>247</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="D11" t="n">
-        <v>309</v>
+        <v>490</v>
       </c>
       <c r="E11" t="n">
-        <v>1714</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3282</v>
-      </c>
+        <v>4192</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>5239</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2851</v>
-      </c>
+        <v>5259</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>765</v>
+        <v>2365</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>369</v>
+        <v>890</v>
       </c>
       <c r="L11" t="n">
-        <v>146</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D12" t="n">
-        <v>233</v>
+        <v>535</v>
       </c>
       <c r="E12" t="n">
-        <v>1706</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3283</v>
-      </c>
+        <v>3826</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>6177</v>
+        <v>5176</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>879</v>
+        <v>2216</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>377</v>
+        <v>684</v>
       </c>
       <c r="L12" t="n">
-        <v>111</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="D13" t="n">
-        <v>351</v>
+        <v>600</v>
       </c>
       <c r="E13" t="n">
-        <v>2058</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4050</v>
-      </c>
+        <v>4127</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>7340</v>
+        <v>5564</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>975</v>
+        <v>2754</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="L13" t="n">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>85</v>
-      </c>
-      <c r="D14" t="n">
-        <v>490</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4192</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>5259</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>2365</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>890</v>
-      </c>
-      <c r="L14" t="n">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>86</v>
-      </c>
-      <c r="D15" t="n">
-        <v>535</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3826</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>5176</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>2216</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>684</v>
-      </c>
-      <c r="L15" t="n">
-        <v>205</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
